--- a/P4/data4.xlsx
+++ b/P4/data4.xlsx
@@ -338,15 +338,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>10</v>
       </c>
@@ -371,8 +371,14 @@
       <c r="H1">
         <v>6.58</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>8</v>
       </c>
@@ -397,8 +403,14 @@
       <c r="H2">
         <v>5.76</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -423,8 +435,14 @@
       <c r="H3">
         <v>7.71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9</v>
       </c>
@@ -449,8 +467,14 @@
       <c r="H4">
         <v>8.84</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -475,8 +499,14 @@
       <c r="H5">
         <v>8.4700000000000006</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -501,8 +531,14 @@
       <c r="H6">
         <v>7.04</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -527,8 +563,14 @@
       <c r="H7">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -553,8 +595,14 @@
       <c r="H8">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12</v>
       </c>
@@ -579,8 +627,14 @@
       <c r="H9">
         <v>5.56</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -605,8 +659,14 @@
       <c r="H10">
         <v>7.91</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -630,6 +690,12 @@
       </c>
       <c r="H11">
         <v>6.89</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
